--- a/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/选码平台_mto模板-1.xlsx
+++ b/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/选码平台_mto模板-1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\工作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\工作\git\src\MaterialCodeSelectionPlatform\MaterialCodeSelectionPlatform.Web\ReportTemplates\管道综合材料表\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F37DB6-4D1F-4051-9F61-E28D90D8A9E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28800" windowHeight="12405" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,9 @@
   </sheets>
   <definedNames>
     <definedName name="C_Code" comment="物资编码">次页!$M$4</definedName>
+    <definedName name="DesignQty" localSheetId="1">次页!$H$5</definedName>
     <definedName name="P_CN_ShortDesc" comment="中文采购码短描述">次页!$F$4</definedName>
+    <definedName name="P_Seq" localSheetId="1">次页!$B$4</definedName>
     <definedName name="T_Desc" comment="元件类型描述">次页!$C$4</definedName>
   </definedNames>
   <calcPr calcId="114210"/>
@@ -173,8 +176,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -925,67 +928,151 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1027,104 +1114,20 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1211,20 +1214,20 @@
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规_次页_10" xfId="2"/>
-    <cellStyle name="常规_次页_11" xfId="3"/>
-    <cellStyle name="常规_次页_12" xfId="4"/>
-    <cellStyle name="常规_次页_13" xfId="5"/>
-    <cellStyle name="常规_次页_14" xfId="6"/>
-    <cellStyle name="常规_次页_15" xfId="7"/>
-    <cellStyle name="常规_次页_2" xfId="8"/>
-    <cellStyle name="常规_次页_3" xfId="9"/>
-    <cellStyle name="常规_次页_4" xfId="10"/>
-    <cellStyle name="常规_次页_5" xfId="11"/>
-    <cellStyle name="常规_次页_7" xfId="12"/>
-    <cellStyle name="常规_次页_8" xfId="13"/>
-    <cellStyle name="常规_次页_9" xfId="14"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规_次页_10" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规_次页_11" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规_次页_12" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规_次页_13" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规_次页_14" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="常规_次页_15" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规_次页_2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规_次页_3" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="常规_次页_4" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="常规_次页_5" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规_次页_7" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规_次页_8" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规_次页_9" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1256,13 +1259,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1147" name="图片 2"/>
+        <xdr:cNvPr id="1147" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1574,14 +1583,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.25" style="6" customWidth="1"/>
     <col min="2" max="7" width="10.625" style="8" customWidth="1"/>
@@ -1591,608 +1600,608 @@
     <col min="21" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="2" spans="1:20" ht="42" customHeight="1">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="12"/>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="50" t="s">
+      <c r="D2" s="96"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="82" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="84"/>
-    </row>
-    <row r="3" spans="1:20" ht="42" customHeight="1">
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="67"/>
+    </row>
+    <row r="3" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="94" t="s">
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="96"/>
-    </row>
-    <row r="4" spans="1:20" ht="27.95" customHeight="1">
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="79"/>
+    </row>
+    <row r="4" spans="1:20" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="73" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="63"/>
-    </row>
-    <row r="5" spans="1:20" ht="27.95" customHeight="1">
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="85"/>
+    </row>
+    <row r="5" spans="1:20" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="97" t="s">
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="99"/>
-    </row>
-    <row r="6" spans="1:20" ht="27.95" customHeight="1">
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="82"/>
+    </row>
+    <row r="6" spans="1:20" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="61" t="s">
+      <c r="B6" s="92"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="63"/>
-    </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="B7" s="85" t="s">
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="85"/>
+    </row>
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="87"/>
-    </row>
-    <row r="8" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="B8" s="88"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="89"/>
-      <c r="S8" s="89"/>
-      <c r="T8" s="90"/>
-    </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="B9" s="88"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="89"/>
-      <c r="S9" s="89"/>
-      <c r="T9" s="90"/>
-    </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="B10" s="88"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="90"/>
-    </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="B11" s="88"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="89"/>
-      <c r="R11" s="89"/>
-      <c r="S11" s="89"/>
-      <c r="T11" s="90"/>
-    </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="B12" s="88"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="90"/>
-    </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="B13" s="88"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="90"/>
-    </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="B14" s="88"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="89"/>
-      <c r="T14" s="90"/>
-    </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="B15" s="88"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="89"/>
-      <c r="T15" s="90"/>
-    </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="B16" s="88"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="89"/>
-      <c r="T16" s="90"/>
-    </row>
-    <row r="17" spans="2:20" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="B17" s="88"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="89"/>
-      <c r="S17" s="89"/>
-      <c r="T17" s="90"/>
-    </row>
-    <row r="18" spans="2:20" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="B18" s="88"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="90"/>
-    </row>
-    <row r="19" spans="2:20" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="89"/>
-      <c r="T19" s="90"/>
-    </row>
-    <row r="20" spans="2:20" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="B20" s="88"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="89"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="89"/>
-      <c r="S20" s="89"/>
-      <c r="T20" s="90"/>
-    </row>
-    <row r="21" spans="2:20" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="89"/>
-      <c r="R21" s="89"/>
-      <c r="S21" s="89"/>
-      <c r="T21" s="90"/>
-    </row>
-    <row r="22" spans="2:20" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="89"/>
-      <c r="T22" s="90"/>
-    </row>
-    <row r="23" spans="2:20" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="B23" s="91"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="92"/>
-      <c r="R23" s="92"/>
-      <c r="S23" s="92"/>
-      <c r="T23" s="93"/>
-    </row>
-    <row r="24" spans="2:20" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="B24" s="60"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="57"/>
-    </row>
-    <row r="25" spans="2:20" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="B25" s="60"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="57"/>
-    </row>
-    <row r="26" spans="2:20" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="B26" s="60"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="57"/>
-    </row>
-    <row r="27" spans="2:20" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="B27" s="60"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="57"/>
-    </row>
-    <row r="28" spans="2:20" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="B28" s="59" t="s">
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="70"/>
+    </row>
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="71"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="73"/>
+    </row>
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="71"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="73"/>
+    </row>
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="73"/>
+    </row>
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="71"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="73"/>
+    </row>
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="71"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="73"/>
+    </row>
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="73"/>
+    </row>
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="71"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="73"/>
+    </row>
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="73"/>
+    </row>
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="71"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="73"/>
+    </row>
+    <row r="17" spans="2:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="71"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="73"/>
+    </row>
+    <row r="18" spans="2:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="71"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="73"/>
+    </row>
+    <row r="19" spans="2:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="71"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="72"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="73"/>
+    </row>
+    <row r="20" spans="2:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="71"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="73"/>
+    </row>
+    <row r="21" spans="2:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="71"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="72"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="73"/>
+    </row>
+    <row r="22" spans="2:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="71"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="73"/>
+    </row>
+    <row r="23" spans="2:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="74"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="76"/>
+    </row>
+    <row r="24" spans="2:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="54"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="50"/>
+    </row>
+    <row r="25" spans="2:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="54"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="50"/>
+    </row>
+    <row r="26" spans="2:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="54"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="50"/>
+    </row>
+    <row r="27" spans="2:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="54"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="50"/>
+    </row>
+    <row r="28" spans="2:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="43" t="s">
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="43" t="s">
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="43" t="s">
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="43" t="s">
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="43" t="s">
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="S28" s="44"/>
-      <c r="T28" s="58"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="53"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -2202,29 +2211,20 @@
     <protectedRange sqref="Q5:T5" name="区域1_2"/>
   </protectedRanges>
   <mergeCells count="40">
-    <mergeCell ref="F4:P6"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B7:T23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="C2:E3"/>
     <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="B4:E6"/>
+    <mergeCell ref="B28:D28"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="E27:H27"/>
     <mergeCell ref="O27:Q27"/>
     <mergeCell ref="E26:H26"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="B4:E6"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L26:N26"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="O24:Q24"/>
     <mergeCell ref="B25:D25"/>
@@ -2232,16 +2232,25 @@
     <mergeCell ref="O26:Q26"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="C2:E3"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:N24"/>
     <mergeCell ref="F2:P3"/>
     <mergeCell ref="R26:T26"/>
     <mergeCell ref="R24:T24"/>
     <mergeCell ref="R27:T27"/>
     <mergeCell ref="R28:T28"/>
-    <mergeCell ref="B28:D28"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="F4:P6"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="B7:T23"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="Q6:T6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.70866141732283472" bottom="0.39370078740157483" header="1.9291338582677167" footer="0.31496062992125984"/>
@@ -2254,14 +2263,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:P94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" customWidth="1"/>
@@ -2274,7 +2283,7 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="45" customHeight="1">
+    <row r="2" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="100" t="s">
         <v>30</v>
       </c>
@@ -2297,7 +2306,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="2:16" ht="45" customHeight="1">
+    <row r="3" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="103"/>
       <c r="C3" s="104"/>
       <c r="D3" s="105"/>
@@ -2314,7 +2323,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="2:16" ht="24.95" customHeight="1">
+    <row r="4" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="112" t="s">
         <v>9</v>
       </c>
@@ -2349,7 +2358,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="2:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="113"/>
       <c r="C5" s="113"/>
       <c r="D5" s="113"/>
@@ -2374,7 +2383,7 @@
       <c r="M5" s="125"/>
       <c r="N5" s="121"/>
     </row>
-    <row r="6" spans="2:16" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="6" spans="2:16" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="16"/>
       <c r="C6" s="35"/>
       <c r="D6" s="39"/>
@@ -2389,7 +2398,7 @@
       <c r="M6" s="23"/>
       <c r="N6" s="24"/>
     </row>
-    <row r="7" spans="2:16" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="7" spans="2:16" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="26"/>
       <c r="C7" s="36"/>
       <c r="D7" s="27"/>
@@ -2404,7 +2413,7 @@
       <c r="M7" s="29"/>
       <c r="N7" s="26"/>
     </row>
-    <row r="8" spans="2:16" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="8" spans="2:16" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="26"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -2419,7 +2428,7 @@
       <c r="M8" s="29"/>
       <c r="N8" s="26"/>
     </row>
-    <row r="9" spans="2:16" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="9" spans="2:16" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="26"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -2434,7 +2443,7 @@
       <c r="M9" s="29"/>
       <c r="N9" s="26"/>
     </row>
-    <row r="10" spans="2:16" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="10" spans="2:16" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="26"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
@@ -2449,7 +2458,7 @@
       <c r="M10" s="29"/>
       <c r="N10" s="26"/>
     </row>
-    <row r="11" spans="2:16" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="11" spans="2:16" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="26"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -2464,7 +2473,7 @@
       <c r="M11" s="29"/>
       <c r="N11" s="26"/>
     </row>
-    <row r="12" spans="2:16" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="12" spans="2:16" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="26"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -2479,7 +2488,7 @@
       <c r="M12" s="29"/>
       <c r="N12" s="26"/>
     </row>
-    <row r="13" spans="2:16" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="13" spans="2:16" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="26"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
@@ -2494,7 +2503,7 @@
       <c r="M13" s="29"/>
       <c r="N13" s="26"/>
     </row>
-    <row r="14" spans="2:16" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="14" spans="2:16" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="26"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -2509,7 +2518,7 @@
       <c r="M14" s="29"/>
       <c r="N14" s="26"/>
     </row>
-    <row r="15" spans="2:16" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="15" spans="2:16" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="26"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -2524,7 +2533,7 @@
       <c r="M15" s="29"/>
       <c r="N15" s="26"/>
     </row>
-    <row r="16" spans="2:16" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="16" spans="2:16" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="26"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -2539,7 +2548,7 @@
       <c r="M16" s="29"/>
       <c r="N16" s="26"/>
     </row>
-    <row r="17" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="17" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -2554,7 +2563,7 @@
       <c r="M17" s="29"/>
       <c r="N17" s="26"/>
     </row>
-    <row r="18" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="18" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="26"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -2569,7 +2578,7 @@
       <c r="M18" s="29"/>
       <c r="N18" s="26"/>
     </row>
-    <row r="19" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="19" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="26"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -2584,7 +2593,7 @@
       <c r="M19" s="29"/>
       <c r="N19" s="26"/>
     </row>
-    <row r="20" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="20" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="26"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -2599,7 +2608,7 @@
       <c r="M20" s="31"/>
       <c r="N20" s="30"/>
     </row>
-    <row r="21" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="21" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="26"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -2614,7 +2623,7 @@
       <c r="M21" s="29"/>
       <c r="N21" s="26"/>
     </row>
-    <row r="22" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="22" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="26"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
@@ -2629,7 +2638,7 @@
       <c r="M22" s="29"/>
       <c r="N22" s="26"/>
     </row>
-    <row r="23" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="23" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="26"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -2644,7 +2653,7 @@
       <c r="M23" s="29"/>
       <c r="N23" s="26"/>
     </row>
-    <row r="24" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="24" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="26"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -2659,7 +2668,7 @@
       <c r="M24" s="29"/>
       <c r="N24" s="26"/>
     </row>
-    <row r="25" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="25" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="26"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -2674,7 +2683,7 @@
       <c r="M25" s="29"/>
       <c r="N25" s="26"/>
     </row>
-    <row r="26" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="26" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="26"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -2689,7 +2698,7 @@
       <c r="M26" s="29"/>
       <c r="N26" s="26"/>
     </row>
-    <row r="27" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="27" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="26"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -2704,7 +2713,7 @@
       <c r="M27" s="29"/>
       <c r="N27" s="26"/>
     </row>
-    <row r="28" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="28" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="26"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
@@ -2719,7 +2728,7 @@
       <c r="M28" s="29"/>
       <c r="N28" s="26"/>
     </row>
-    <row r="29" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="29" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="26"/>
       <c r="C29" s="35"/>
       <c r="D29" s="27"/>
@@ -2734,7 +2743,7 @@
       <c r="M29" s="29"/>
       <c r="N29" s="26"/>
     </row>
-    <row r="30" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="30" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="26"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
@@ -2749,7 +2758,7 @@
       <c r="M30" s="29"/>
       <c r="N30" s="26"/>
     </row>
-    <row r="31" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="31" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="26"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
@@ -2764,7 +2773,7 @@
       <c r="M31" s="29"/>
       <c r="N31" s="26"/>
     </row>
-    <row r="32" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="32" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="26"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
@@ -2779,7 +2788,7 @@
       <c r="M32" s="29"/>
       <c r="N32" s="26"/>
     </row>
-    <row r="33" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="33" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="26"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
@@ -2794,7 +2803,7 @@
       <c r="M33" s="29"/>
       <c r="N33" s="26"/>
     </row>
-    <row r="34" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="34" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="26"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
@@ -2809,7 +2818,7 @@
       <c r="M34" s="29"/>
       <c r="N34" s="26"/>
     </row>
-    <row r="35" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="35" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
@@ -2824,7 +2833,7 @@
       <c r="M35" s="29"/>
       <c r="N35" s="26"/>
     </row>
-    <row r="36" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="36" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="26"/>
       <c r="C36" s="32"/>
       <c r="D36" s="27"/>
@@ -2839,7 +2848,7 @@
       <c r="M36" s="29"/>
       <c r="N36" s="26"/>
     </row>
-    <row r="37" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="37" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="26"/>
       <c r="C37" s="32"/>
       <c r="D37" s="27"/>
@@ -2854,7 +2863,7 @@
       <c r="M37" s="29"/>
       <c r="N37" s="26"/>
     </row>
-    <row r="38" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="38" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="26"/>
       <c r="C38" s="32"/>
       <c r="D38" s="27"/>
@@ -2869,7 +2878,7 @@
       <c r="M38" s="29"/>
       <c r="N38" s="26"/>
     </row>
-    <row r="39" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="39" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="26"/>
       <c r="C39" s="37"/>
       <c r="D39" s="27"/>
@@ -2884,7 +2893,7 @@
       <c r="M39" s="29"/>
       <c r="N39" s="26"/>
     </row>
-    <row r="40" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="40" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="26"/>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
@@ -2899,7 +2908,7 @@
       <c r="M40" s="29"/>
       <c r="N40" s="26"/>
     </row>
-    <row r="41" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="41" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="26"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
@@ -2914,7 +2923,7 @@
       <c r="M41" s="29"/>
       <c r="N41" s="26"/>
     </row>
-    <row r="42" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="42" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="26"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
@@ -2929,7 +2938,7 @@
       <c r="M42" s="29"/>
       <c r="N42" s="26"/>
     </row>
-    <row r="43" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="43" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="26"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
@@ -2944,7 +2953,7 @@
       <c r="M43" s="29"/>
       <c r="N43" s="26"/>
     </row>
-    <row r="44" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="44" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="26"/>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
@@ -2959,7 +2968,7 @@
       <c r="M44" s="29"/>
       <c r="N44" s="26"/>
     </row>
-    <row r="45" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="45" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="26"/>
       <c r="C45" s="32"/>
       <c r="D45" s="27"/>
@@ -2974,7 +2983,7 @@
       <c r="M45" s="29"/>
       <c r="N45" s="26"/>
     </row>
-    <row r="46" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="46" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="26"/>
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
@@ -2989,7 +2998,7 @@
       <c r="M46" s="29"/>
       <c r="N46" s="26"/>
     </row>
-    <row r="47" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="47" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="26"/>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
@@ -3004,7 +3013,7 @@
       <c r="M47" s="29"/>
       <c r="N47" s="26"/>
     </row>
-    <row r="48" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="48" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="26"/>
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
@@ -3019,7 +3028,7 @@
       <c r="M48" s="29"/>
       <c r="N48" s="26"/>
     </row>
-    <row r="49" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="49" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="26"/>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
@@ -3034,7 +3043,7 @@
       <c r="M49" s="29"/>
       <c r="N49" s="26"/>
     </row>
-    <row r="50" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="50" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="26"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
@@ -3049,7 +3058,7 @@
       <c r="M50" s="29"/>
       <c r="N50" s="26"/>
     </row>
-    <row r="51" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="51" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="33"/>
       <c r="C51" s="37"/>
       <c r="D51" s="27"/>
@@ -3064,7 +3073,7 @@
       <c r="M51" s="29"/>
       <c r="N51" s="26"/>
     </row>
-    <row r="52" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="52" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="26"/>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
@@ -3079,7 +3088,7 @@
       <c r="M52" s="29"/>
       <c r="N52" s="26"/>
     </row>
-    <row r="53" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="53" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="26"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
@@ -3094,7 +3103,7 @@
       <c r="M53" s="29"/>
       <c r="N53" s="26"/>
     </row>
-    <row r="54" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="54" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="26"/>
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
@@ -3109,7 +3118,7 @@
       <c r="M54" s="29"/>
       <c r="N54" s="26"/>
     </row>
-    <row r="55" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="55" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="33"/>
       <c r="C55" s="37"/>
       <c r="D55" s="27"/>
@@ -3124,7 +3133,7 @@
       <c r="M55" s="29"/>
       <c r="N55" s="26"/>
     </row>
-    <row r="56" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="56" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="26"/>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
@@ -3139,7 +3148,7 @@
       <c r="M56" s="29"/>
       <c r="N56" s="26"/>
     </row>
-    <row r="57" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="57" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="26"/>
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
@@ -3154,7 +3163,7 @@
       <c r="M57" s="29"/>
       <c r="N57" s="26"/>
     </row>
-    <row r="58" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="58" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="26"/>
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
@@ -3169,7 +3178,7 @@
       <c r="M58" s="29"/>
       <c r="N58" s="26"/>
     </row>
-    <row r="59" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="59" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="26"/>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
@@ -3184,7 +3193,7 @@
       <c r="M59" s="29"/>
       <c r="N59" s="26"/>
     </row>
-    <row r="60" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="60" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="26"/>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
@@ -3199,7 +3208,7 @@
       <c r="M60" s="29"/>
       <c r="N60" s="26"/>
     </row>
-    <row r="61" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="61" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="26"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
@@ -3214,7 +3223,7 @@
       <c r="M61" s="29"/>
       <c r="N61" s="26"/>
     </row>
-    <row r="62" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="62" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="26"/>
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
@@ -3229,7 +3238,7 @@
       <c r="M62" s="29"/>
       <c r="N62" s="26"/>
     </row>
-    <row r="63" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="63" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="26"/>
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
@@ -3244,7 +3253,7 @@
       <c r="M63" s="29"/>
       <c r="N63" s="26"/>
     </row>
-    <row r="64" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="64" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="26"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
@@ -3259,7 +3268,7 @@
       <c r="M64" s="29"/>
       <c r="N64" s="26"/>
     </row>
-    <row r="65" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="65" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="26"/>
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
@@ -3274,7 +3283,7 @@
       <c r="M65" s="29"/>
       <c r="N65" s="26"/>
     </row>
-    <row r="66" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="66" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="26"/>
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
@@ -3289,7 +3298,7 @@
       <c r="M66" s="29"/>
       <c r="N66" s="26"/>
     </row>
-    <row r="67" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="67" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="26"/>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
@@ -3304,7 +3313,7 @@
       <c r="M67" s="29"/>
       <c r="N67" s="26"/>
     </row>
-    <row r="68" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="68" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="26"/>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
@@ -3319,7 +3328,7 @@
       <c r="M68" s="29"/>
       <c r="N68" s="26"/>
     </row>
-    <row r="69" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="69" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="33"/>
       <c r="C69" s="37"/>
       <c r="D69" s="27"/>
@@ -3334,7 +3343,7 @@
       <c r="M69" s="29"/>
       <c r="N69" s="26"/>
     </row>
-    <row r="70" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="70" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="26"/>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
@@ -3349,7 +3358,7 @@
       <c r="M70" s="29"/>
       <c r="N70" s="26"/>
     </row>
-    <row r="71" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="71" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="26"/>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
@@ -3364,7 +3373,7 @@
       <c r="M71" s="29"/>
       <c r="N71" s="26"/>
     </row>
-    <row r="72" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="72" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="33"/>
       <c r="C72" s="37"/>
       <c r="D72" s="27"/>
@@ -3379,7 +3388,7 @@
       <c r="M72" s="29"/>
       <c r="N72" s="26"/>
     </row>
-    <row r="73" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="73" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="26"/>
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
@@ -3394,7 +3403,7 @@
       <c r="M73" s="29"/>
       <c r="N73" s="26"/>
     </row>
-    <row r="74" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="74" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="26"/>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
@@ -3409,7 +3418,7 @@
       <c r="M74" s="29"/>
       <c r="N74" s="26"/>
     </row>
-    <row r="75" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="75" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="26"/>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
@@ -3424,7 +3433,7 @@
       <c r="M75" s="29"/>
       <c r="N75" s="26"/>
     </row>
-    <row r="76" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="76" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="26"/>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
@@ -3439,7 +3448,7 @@
       <c r="M76" s="29"/>
       <c r="N76" s="26"/>
     </row>
-    <row r="77" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="77" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="26"/>
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
@@ -3454,7 +3463,7 @@
       <c r="M77" s="29"/>
       <c r="N77" s="26"/>
     </row>
-    <row r="78" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="78" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="26"/>
       <c r="C78" s="27"/>
       <c r="D78" s="27"/>
@@ -3469,7 +3478,7 @@
       <c r="M78" s="29"/>
       <c r="N78" s="26"/>
     </row>
-    <row r="79" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="79" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="26"/>
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
@@ -3484,7 +3493,7 @@
       <c r="M79" s="29"/>
       <c r="N79" s="26"/>
     </row>
-    <row r="80" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="80" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="26"/>
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
@@ -3499,7 +3508,7 @@
       <c r="M80" s="29"/>
       <c r="N80" s="26"/>
     </row>
-    <row r="81" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="81" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="26"/>
       <c r="C81" s="27"/>
       <c r="D81" s="27"/>
@@ -3514,7 +3523,7 @@
       <c r="M81" s="29"/>
       <c r="N81" s="26"/>
     </row>
-    <row r="82" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="82" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="26"/>
       <c r="C82" s="27"/>
       <c r="D82" s="27"/>
@@ -3529,7 +3538,7 @@
       <c r="M82" s="29"/>
       <c r="N82" s="26"/>
     </row>
-    <row r="83" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="83" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="26"/>
       <c r="C83" s="27"/>
       <c r="D83" s="27"/>
@@ -3544,7 +3553,7 @@
       <c r="M83" s="29"/>
       <c r="N83" s="26"/>
     </row>
-    <row r="84" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="84" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="26"/>
       <c r="C84" s="27"/>
       <c r="D84" s="27"/>
@@ -3559,7 +3568,7 @@
       <c r="M84" s="29"/>
       <c r="N84" s="26"/>
     </row>
-    <row r="85" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="85" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="26"/>
       <c r="C85" s="27"/>
       <c r="D85" s="27"/>
@@ -3574,7 +3583,7 @@
       <c r="M85" s="29"/>
       <c r="N85" s="26"/>
     </row>
-    <row r="86" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="86" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="26"/>
       <c r="C86" s="27"/>
       <c r="D86" s="27"/>
@@ -3589,7 +3598,7 @@
       <c r="M86" s="29"/>
       <c r="N86" s="26"/>
     </row>
-    <row r="87" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="87" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="26"/>
       <c r="C87" s="27"/>
       <c r="D87" s="27"/>
@@ -3604,7 +3613,7 @@
       <c r="M87" s="29"/>
       <c r="N87" s="26"/>
     </row>
-    <row r="88" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="88" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="26"/>
       <c r="C88" s="27"/>
       <c r="D88" s="27"/>
@@ -3619,7 +3628,7 @@
       <c r="M88" s="29"/>
       <c r="N88" s="26"/>
     </row>
-    <row r="89" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="89" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="26"/>
       <c r="C89" s="27"/>
       <c r="D89" s="27"/>
@@ -3634,7 +3643,7 @@
       <c r="M89" s="29"/>
       <c r="N89" s="26"/>
     </row>
-    <row r="90" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="90" spans="2:14" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="26"/>
       <c r="C90" s="27"/>
       <c r="D90" s="27"/>
@@ -3649,7 +3658,7 @@
       <c r="M90" s="29"/>
       <c r="N90" s="26"/>
     </row>
-    <row r="91" spans="2:14" ht="30" customHeight="1">
+    <row r="91" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="34"/>
       <c r="C91" s="38"/>
       <c r="D91" s="38"/>
@@ -3664,11 +3673,11 @@
       <c r="M91" s="34"/>
       <c r="N91" s="42"/>
     </row>
-    <row r="92" spans="2:14" ht="30" customHeight="1">
+    <row r="92" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="34"/>
     </row>
-    <row r="93" spans="2:14" ht="30" customHeight="1"/>
-    <row r="94" spans="2:14" ht="30" customHeight="1"/>
+    <row r="93" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <protectedRanges>
